--- a/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 млрсч.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/03,01,24 КИ/дв 03,01,24 млрсч.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\03,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A778E8-6F1D-4838-93B9-7C4CF75C0B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87DC10F-A569-498D-8AE3-62A2D7592313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6980,8 +6980,8 @@
   <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD68"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
